--- a/Backup.xlsx
+++ b/Backup.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -481,14 +481,6874 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>SamJ</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>6</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>SamJ</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>4</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>6</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>SamJ</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>7</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>8</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Jasper</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>4</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>6</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>SamJ</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>7</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>8</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Jasper</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>9</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Kimmy</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>2</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>4</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>2</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>5</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>6</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>SamJ</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>7</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>8</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Jasper</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>9</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Kimmy</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>10</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>2</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>3</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>4</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>2</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>5</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>6</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>SamJ</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>7</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>8</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Jasper</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>9</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Kimmy</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>10</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>11</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>2</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>3</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>4</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>2</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>5</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>6</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>SamJ</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>7</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>8</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Jasper</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>9</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Kimmy</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>10</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>11</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>12</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>2</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>2</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>3</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>4</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>2</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>5</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>6</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>SamJ</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>7</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>8</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Jasper</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>9</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Kimmy</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>10</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>11</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>1</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>12</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>2</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>13</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>3</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>2</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>2</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>3</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>4</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>2</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>5</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>1</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>6</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>SamJ</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>7</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>8</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Jasper</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>9</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Kimmy</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>10</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>11</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>12</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>2</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>13</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>3</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>14</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>Angus</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+      <c r="E133" t="n">
+        <v>1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>2</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>3</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>1</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>4</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>2</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>5</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>6</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>SamJ</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>7</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>8</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Jasper</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>1</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>9</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Kimmy</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>10</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>1</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>11</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>12</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>13</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>3</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>14</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>15</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>2</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>2</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>3</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>4</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>2</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>5</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>1</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>6</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>SamJ</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>1</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>7</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>1</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>8</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Jasper</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>1</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>9</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Kimmy</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>10</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>1</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>11</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>1</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>12</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>2</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>13</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>3</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>14</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>1</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>15</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>1</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>16</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Clarrie</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>2</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>1</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>2</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>2</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>3</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>1</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>4</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>2</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>5</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>1</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>6</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>SamJ</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>1</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>7</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>1</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>8</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Jasper</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>1</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>9</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Kimmy</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>1</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>10</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>1</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>11</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>1</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>12</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>2</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>13</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>3</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>14</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>1</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>15</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>1</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>16</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Clarrie</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>2</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>17</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>3</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>1</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>2</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>2</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>3</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>1</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>4</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>2</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>5</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>1</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>6</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>SamJ</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>1</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>7</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>1</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>8</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Jasper</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>1</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>9</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Kimmy</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>1</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>10</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>1</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>11</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>1</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>12</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>2</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>13</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>3</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>14</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>1</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>15</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>1</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>16</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Clarrie</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>2</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>17</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>3</v>
+      </c>
+      <c r="F206" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>18</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>4</v>
+      </c>
+      <c r="F207" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>1</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>1</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>2</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>2</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>3</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>1</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>4</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>2</v>
+      </c>
+      <c r="F213" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>5</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>1</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>6</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>SamJ</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>1</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>7</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>1</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>8</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Jasper</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>1</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>9</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Kimmy</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>1</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>10</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>1</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>11</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>1</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>12</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>2</v>
+      </c>
+      <c r="F221" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>13</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>3</v>
+      </c>
+      <c r="F222" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>14</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>1</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>15</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>1</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>16</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Clarrie</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>2</v>
+      </c>
+      <c r="F225" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>17</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>3</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>18</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>4</v>
+      </c>
+      <c r="F227" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>19</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>5</v>
+      </c>
+      <c r="F228" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>1</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>1</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>2</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>2</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>3</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>1</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>4</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>2</v>
+      </c>
+      <c r="F234" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>5</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>1</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>6</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>SamJ</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>1</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>7</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>1</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>8</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Jasper</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>1</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>9</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Kimmy</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>1</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>10</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>1</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>11</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>1</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>12</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>2</v>
+      </c>
+      <c r="F242" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>13</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>3</v>
+      </c>
+      <c r="F243" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>14</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>1</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>15</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>1</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>16</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Clarrie</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>2</v>
+      </c>
+      <c r="F246" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>17</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>3</v>
+      </c>
+      <c r="F247" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>18</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>4</v>
+      </c>
+      <c r="F248" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>19</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>5</v>
+      </c>
+      <c r="F249" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>20</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>6</v>
+      </c>
+      <c r="F250" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>1</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>1</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>2</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>2</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>3</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>1</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>4</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>2</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>5</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>1</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>6</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>SamJ</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>1</v>
+      </c>
+      <c r="F258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>7</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>1</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>8</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Jasper</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>1</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>9</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Kimmy</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>1</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>10</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>1</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>11</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>1</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>12</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>2</v>
+      </c>
+      <c r="F264" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>13</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>3</v>
+      </c>
+      <c r="F265" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>14</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>1</v>
+      </c>
+      <c r="F266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>15</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>1</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>16</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Clarrie</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>2</v>
+      </c>
+      <c r="F268" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>17</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>3</v>
+      </c>
+      <c r="F269" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>18</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>4</v>
+      </c>
+      <c r="F270" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>19</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>5</v>
+      </c>
+      <c r="F271" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>20</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>6</v>
+      </c>
+      <c r="F272" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>21</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>DELETE THISS</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>7</v>
+      </c>
+      <c r="F273" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Backup.xlsx
+++ b/Backup.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2023-02-21</t>
+          <t>2023-02-22</t>
         </is>
       </c>
     </row>
@@ -471,17 +471,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -499,7 +499,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-02-21</t>
+          <t>2023-02-22</t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -572,7 +572,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-02-21</t>
+          <t>2023-02-22</t>
         </is>
       </c>
     </row>
@@ -637,17 +637,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -668,7 +668,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -689,24 +689,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Will</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -717,7 +717,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-02-21</t>
+          <t>2023-02-22</t>
         </is>
       </c>
     </row>
@@ -759,17 +759,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -790,7 +790,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -811,24 +811,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Will</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -837,17 +837,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -865,7 +865,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-02-21</t>
+          <t>2023-02-22</t>
         </is>
       </c>
     </row>
@@ -907,17 +907,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -938,7 +938,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -959,24 +959,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Will</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -985,17 +985,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1021,14 +1021,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-02-21</t>
+          <t>2023-02-22</t>
         </is>
       </c>
     </row>
@@ -1081,17 +1081,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1133,24 +1133,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Will</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1195,14 +1195,14 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -1211,21 +1211,21 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
         <v>2</v>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-02-21</t>
+          <t>2023-02-22</t>
         </is>
       </c>
     </row>
@@ -1281,17 +1281,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1333,24 +1333,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Will</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1395,14 +1395,14 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1411,21 +1411,21 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
         <v>2</v>
@@ -1437,24 +1437,24 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Mitch</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2023-02-21</t>
+          <t>2023-02-22</t>
         </is>
       </c>
     </row>
@@ -1507,17 +1507,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1559,24 +1559,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Will</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -1585,17 +1585,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1621,14 +1621,14 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -1637,21 +1637,21 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" t="n">
         <v>2</v>
@@ -1663,24 +1663,24 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Mitch</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1689,21 +1689,21 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
         <v>3</v>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2023-02-21</t>
+          <t>2023-02-22</t>
         </is>
       </c>
     </row>
@@ -1759,17 +1759,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1811,24 +1811,24 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Will</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -1837,17 +1837,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1873,14 +1873,14 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -1889,21 +1889,21 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" t="n">
         <v>2</v>
@@ -1915,24 +1915,24 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Mitch</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1941,21 +1941,21 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
         <v>3</v>
@@ -1967,24 +1967,24 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2023-02-21</t>
+          <t>2023-02-22</t>
         </is>
       </c>
     </row>
@@ -2037,17 +2037,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2089,24 +2089,24 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Will</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -2115,17 +2115,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2151,14 +2151,14 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -2167,21 +2167,21 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" t="n">
         <v>2</v>
@@ -2193,24 +2193,24 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Mitch</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2219,21 +2219,21 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
         <v>3</v>
@@ -2245,24 +2245,24 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -2276,1086 +2276,18 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Conor</t>
+          <t>SamM</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Date:</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2023-02-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>GN</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Winner</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Loser</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Scorer</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>W-Streak</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>L-Streak</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>1</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>1</v>
-      </c>
-      <c r="F78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>2</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>1</v>
-      </c>
-      <c r="F79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>3</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Will</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>1</v>
-      </c>
-      <c r="F80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>4</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>1</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>5</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Lukas</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>1</v>
-      </c>
-      <c r="F82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>6</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>2</v>
-      </c>
-      <c r="F83" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>7</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Lukas</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>3</v>
-      </c>
-      <c r="F84" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>8</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>SamM</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>4</v>
-      </c>
-      <c r="F85" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>9</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>SamM</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>5</v>
-      </c>
-      <c r="F86" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>10</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Conor</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>6</v>
-      </c>
-      <c r="F87" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>11</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>SamJ</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>1</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Date:</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2023-02-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>GN</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Winner</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Loser</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Scorer</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>W-Streak</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>L-Streak</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>1</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>1</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>2</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>1</v>
-      </c>
-      <c r="F92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>3</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Will</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>1</v>
-      </c>
-      <c r="F93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>4</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>1</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>5</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Lukas</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>1</v>
-      </c>
-      <c r="F95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>6</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>2</v>
-      </c>
-      <c r="F96" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>7</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Lukas</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
-        <v>3</v>
-      </c>
-      <c r="F97" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>8</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>SamM</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>4</v>
-      </c>
-      <c r="F98" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>9</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>SamM</t>
-        </is>
-      </c>
-      <c r="E99" t="n">
-        <v>5</v>
-      </c>
-      <c r="F99" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>10</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Conor</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>6</v>
-      </c>
-      <c r="F100" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>11</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>SamJ</t>
-        </is>
-      </c>
-      <c r="E101" t="n">
-        <v>1</v>
-      </c>
-      <c r="F101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>12</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E102" t="n">
-        <v>2</v>
-      </c>
-      <c r="F102" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Date:</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2023-02-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>GN</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Winner</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Loser</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Scorer</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>W-Streak</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>L-Streak</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>1</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E105" t="n">
-        <v>1</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>2</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="E106" t="n">
-        <v>1</v>
-      </c>
-      <c r="F106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>3</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Will</t>
-        </is>
-      </c>
-      <c r="E107" t="n">
-        <v>1</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>4</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E108" t="n">
-        <v>1</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>5</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Lukas</t>
-        </is>
-      </c>
-      <c r="E109" t="n">
-        <v>1</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>6</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="E110" t="n">
-        <v>2</v>
-      </c>
-      <c r="F110" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>7</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Lukas</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
-        <v>3</v>
-      </c>
-      <c r="F111" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>8</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>SamM</t>
-        </is>
-      </c>
-      <c r="E112" t="n">
-        <v>4</v>
-      </c>
-      <c r="F112" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>9</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>SamM</t>
-        </is>
-      </c>
-      <c r="E113" t="n">
-        <v>5</v>
-      </c>
-      <c r="F113" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>10</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Conor</t>
-        </is>
-      </c>
-      <c r="E114" t="n">
-        <v>6</v>
-      </c>
-      <c r="F114" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>11</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>SamJ</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>1</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>12</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E116" t="n">
-        <v>2</v>
-      </c>
-      <c r="F116" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>13</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Lukas</t>
-        </is>
-      </c>
-      <c r="E117" t="n">
-        <v>1</v>
-      </c>
-      <c r="F117" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Backup.xlsx
+++ b/Backup.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2023-02-27</t>
+          <t>2023-02-28</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -499,7 +499,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-02-27</t>
+          <t>2023-02-28</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -595,7 +595,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-02-27</t>
+          <t>2023-02-28</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -699,7 +699,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -717,7 +717,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-02-27</t>
+          <t>2023-02-28</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -821,7 +821,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -837,24 +837,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Conor</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -865,7 +865,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-02-27</t>
+          <t>2023-02-28</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -969,7 +969,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -985,24 +985,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Conor</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1011,24 +1011,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-02-27</t>
+          <t>2023-02-28</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1159,24 +1159,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Conor</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1185,24 +1185,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1216,19 +1216,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-02-27</t>
+          <t>2023-02-28</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1359,24 +1359,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Conor</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1385,24 +1385,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1416,19 +1416,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Clarrie</t>
+          <t>SamM</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2023-02-27</t>
+          <t>2023-02-28</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1585,24 +1585,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Conor</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1611,24 +1611,24 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1642,19 +1642,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Clarrie</t>
+          <t>SamM</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1689,17 +1689,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2023-02-27</t>
+          <t>2023-02-28</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1837,24 +1837,24 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Conor</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1863,24 +1863,24 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1894,19 +1894,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Clarrie</t>
+          <t>SamM</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -1941,17 +1941,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2023-02-27</t>
+          <t>2023-02-28</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2115,24 +2115,24 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Conor</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2141,24 +2141,24 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2172,19 +2172,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Clarrie</t>
+          <t>SamM</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2219,17 +2219,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>SamM</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -2289,1482 +2289,6 @@
       </c>
       <c r="F75" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Date:</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2023-02-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>GN</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Winner</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Loser</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Scorer</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>W-Streak</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>L-Streak</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>1</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>1</v>
-      </c>
-      <c r="F78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>2</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Kimmy</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>2</v>
-      </c>
-      <c r="F79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>3</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Mitch</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>3</v>
-      </c>
-      <c r="F80" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>4</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Kimmy</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>4</v>
-      </c>
-      <c r="F81" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>5</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Kimmy</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>5</v>
-      </c>
-      <c r="F82" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>6</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>6</v>
-      </c>
-      <c r="F83" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>7</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Clarrie</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>1</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>8</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>SamM</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>9</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Lukas</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>2</v>
-      </c>
-      <c r="F86" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>10</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Alex</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>1</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>11</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Will</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>2</v>
-      </c>
-      <c r="F88" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Date:</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2023-02-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>GN</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Winner</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Loser</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Scorer</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>W-Streak</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>L-Streak</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>1</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>1</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>2</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Kimmy</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>2</v>
-      </c>
-      <c r="F92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>3</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Mitch</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>3</v>
-      </c>
-      <c r="F93" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>4</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Kimmy</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>4</v>
-      </c>
-      <c r="F94" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>5</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Kimmy</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>5</v>
-      </c>
-      <c r="F95" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>6</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>6</v>
-      </c>
-      <c r="F96" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>7</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Clarrie</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
-        <v>1</v>
-      </c>
-      <c r="F97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>8</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>SamM</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>1</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>9</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Lukas</t>
-        </is>
-      </c>
-      <c r="E99" t="n">
-        <v>2</v>
-      </c>
-      <c r="F99" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>10</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Alex</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>1</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>11</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Will</t>
-        </is>
-      </c>
-      <c r="E101" t="n">
-        <v>2</v>
-      </c>
-      <c r="F101" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>12</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>SamM</t>
-        </is>
-      </c>
-      <c r="E102" t="n">
-        <v>1</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Date:</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2023-02-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>GN</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Winner</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Loser</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Scorer</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>W-Streak</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>L-Streak</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>1</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E105" t="n">
-        <v>1</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>2</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Kimmy</t>
-        </is>
-      </c>
-      <c r="E106" t="n">
-        <v>2</v>
-      </c>
-      <c r="F106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>3</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Mitch</t>
-        </is>
-      </c>
-      <c r="E107" t="n">
-        <v>3</v>
-      </c>
-      <c r="F107" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>4</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Kimmy</t>
-        </is>
-      </c>
-      <c r="E108" t="n">
-        <v>4</v>
-      </c>
-      <c r="F108" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>5</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Kimmy</t>
-        </is>
-      </c>
-      <c r="E109" t="n">
-        <v>5</v>
-      </c>
-      <c r="F109" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>6</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E110" t="n">
-        <v>6</v>
-      </c>
-      <c r="F110" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>7</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Clarrie</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
-        <v>1</v>
-      </c>
-      <c r="F111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>8</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>SamM</t>
-        </is>
-      </c>
-      <c r="E112" t="n">
-        <v>1</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>9</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Lukas</t>
-        </is>
-      </c>
-      <c r="E113" t="n">
-        <v>2</v>
-      </c>
-      <c r="F113" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>10</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Alex</t>
-        </is>
-      </c>
-      <c r="E114" t="n">
-        <v>1</v>
-      </c>
-      <c r="F114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>11</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Will</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>2</v>
-      </c>
-      <c r="F115" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>12</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>SamM</t>
-        </is>
-      </c>
-      <c r="E116" t="n">
-        <v>1</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>13</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Lukas</t>
-        </is>
-      </c>
-      <c r="E117" t="n">
-        <v>2</v>
-      </c>
-      <c r="F117" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Date:</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2023-02-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>GN</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Winner</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Loser</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Scorer</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>W-Streak</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>L-Streak</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>1</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E120" t="n">
-        <v>1</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>2</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Kimmy</t>
-        </is>
-      </c>
-      <c r="E121" t="n">
-        <v>2</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>3</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Mitch</t>
-        </is>
-      </c>
-      <c r="E122" t="n">
-        <v>3</v>
-      </c>
-      <c r="F122" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>4</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Kimmy</t>
-        </is>
-      </c>
-      <c r="E123" t="n">
-        <v>4</v>
-      </c>
-      <c r="F123" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>5</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Kimmy</t>
-        </is>
-      </c>
-      <c r="E124" t="n">
-        <v>5</v>
-      </c>
-      <c r="F124" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>6</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E125" t="n">
-        <v>6</v>
-      </c>
-      <c r="F125" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>7</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Clarrie</t>
-        </is>
-      </c>
-      <c r="E126" t="n">
-        <v>1</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>8</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>SamM</t>
-        </is>
-      </c>
-      <c r="E127" t="n">
-        <v>1</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>9</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Lukas</t>
-        </is>
-      </c>
-      <c r="E128" t="n">
-        <v>2</v>
-      </c>
-      <c r="F128" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>10</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Alex</t>
-        </is>
-      </c>
-      <c r="E129" t="n">
-        <v>1</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>11</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Will</t>
-        </is>
-      </c>
-      <c r="E130" t="n">
-        <v>2</v>
-      </c>
-      <c r="F130" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>12</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>SamM</t>
-        </is>
-      </c>
-      <c r="E131" t="n">
-        <v>1</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>13</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Lukas</t>
-        </is>
-      </c>
-      <c r="E132" t="n">
-        <v>2</v>
-      </c>
-      <c r="F132" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>14</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Lukas</t>
-        </is>
-      </c>
-      <c r="E133" t="n">
-        <v>3</v>
-      </c>
-      <c r="F133" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Backup.xlsx
+++ b/Backup.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2023-02-28</t>
+          <t>2023-03-06</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -499,7 +499,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-02-28</t>
+          <t>2023-03-06</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -567,21 +567,21 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Conor</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-02-28</t>
+          <t>2023-03-06</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -663,21 +663,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Conor</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -689,24 +689,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -717,7 +717,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-02-28</t>
+          <t>2023-03-06</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -785,21 +785,21 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Conor</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -811,24 +811,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -837,17 +837,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Conor</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -865,7 +865,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-02-28</t>
+          <t>2023-03-06</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -933,21 +933,21 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Conor</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -959,24 +959,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -985,17 +985,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Conor</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1011,17 +1011,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>SamM</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-02-28</t>
+          <t>2023-03-06</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1107,21 +1107,21 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Conor</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -1133,24 +1133,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Conor</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1185,17 +1185,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>SamM</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1211,17 +1211,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-02-28</t>
+          <t>2023-03-06</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1307,21 +1307,21 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Conor</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -1333,24 +1333,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Conor</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1385,17 +1385,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>SamM</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1411,17 +1411,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1447,14 +1447,14 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2023-02-28</t>
+          <t>2023-03-06</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1533,21 +1533,21 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Conor</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
@@ -1559,24 +1559,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1585,17 +1585,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Conor</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1611,17 +1611,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>SamM</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1637,17 +1637,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1673,14 +1673,14 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -1699,14 +1699,14 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2023-02-28</t>
+          <t>2023-03-06</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -1785,21 +1785,21 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Conor</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
@@ -1811,24 +1811,24 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1837,17 +1837,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Conor</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -1863,17 +1863,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>SamM</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -1889,17 +1889,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1925,14 +1925,14 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -1951,14 +1951,14 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -1967,24 +1967,24 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2023-02-28</t>
+          <t>2023-03-06</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2063,21 +2063,21 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Conor</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
@@ -2089,24 +2089,24 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2115,17 +2115,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Conor</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -2141,17 +2141,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>SamM</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -2167,17 +2167,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2203,14 +2203,14 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -2229,14 +2229,14 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -2245,24 +2245,24 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2289,6 +2289,6324 @@
       </c>
       <c r="F75" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Conor</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>3</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>4</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>5</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>6</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>7</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Clarrie</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>2</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>8</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>3</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>9</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>10</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>11</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>2</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Conor</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>3</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>4</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>5</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>6</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>7</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Clarrie</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>2</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>8</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>3</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>9</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>10</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>11</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>2</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>12</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Kimmy</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Conor</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>3</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>4</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>5</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>6</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>7</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Clarrie</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>2</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>8</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>3</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>9</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>10</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>11</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>2</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>12</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Kimmy</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>1</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>13</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Chris</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>2</v>
+      </c>
+      <c r="F117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>2</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Conor</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>1</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>3</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>4</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>5</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>1</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>6</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>7</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Clarrie</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>2</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>8</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>3</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>9</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>10</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>11</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>2</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>12</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Kimmy</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>1</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>13</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Chris</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>2</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>14</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Conor</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>1</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>3</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>1</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>4</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>1</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>5</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>6</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>7</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Clarrie</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>2</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>8</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>3</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>9</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>10</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>1</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>11</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>2</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>12</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Kimmy</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>1</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>13</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Chris</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>14</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>15</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>2</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Conor</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>1</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>3</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>4</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>5</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>1</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>6</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>1</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>7</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Clarrie</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>2</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>8</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>3</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>9</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>10</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>1</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>11</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>2</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>12</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Kimmy</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>13</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Chris</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>2</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>14</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>1</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>15</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>1</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>16</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>2</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>1</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>2</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Conor</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>1</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>3</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>1</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>4</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>1</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>5</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>1</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>6</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>1</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>7</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Clarrie</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>2</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>8</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>3</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>9</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>1</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>10</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>1</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>11</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>2</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>12</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Kimmy</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>1</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>13</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Chris</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>2</v>
+      </c>
+      <c r="F183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>14</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>1</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>15</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>1</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>16</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>2</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>17</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>3</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>1</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>2</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Conor</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>1</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>3</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>1</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>4</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>1</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>5</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>1</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>6</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>1</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>7</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Clarrie</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>2</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>8</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>3</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>9</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>1</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>10</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>1</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>11</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>2</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>12</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Kimmy</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>1</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>13</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Chris</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>2</v>
+      </c>
+      <c r="F202" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>14</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>1</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>15</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>1</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>16</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>2</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>17</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>3</v>
+      </c>
+      <c r="F206" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>18</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>4</v>
+      </c>
+      <c r="F207" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>1</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>1</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>2</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Conor</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>1</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>3</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>1</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>4</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>1</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>5</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>1</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>6</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>1</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>7</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Clarrie</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>2</v>
+      </c>
+      <c r="F216" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>8</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>3</v>
+      </c>
+      <c r="F217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>9</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>1</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>10</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>1</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>11</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>2</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>12</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Kimmy</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>1</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>13</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Chris</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>2</v>
+      </c>
+      <c r="F222" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>14</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>1</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>15</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>1</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>16</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>2</v>
+      </c>
+      <c r="F225" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>17</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>3</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>18</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>4</v>
+      </c>
+      <c r="F227" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>19</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>5</v>
+      </c>
+      <c r="F228" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>1</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>1</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>2</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Conor</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>1</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>3</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>1</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>4</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>1</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>5</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>1</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>6</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>1</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>7</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Clarrie</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>2</v>
+      </c>
+      <c r="F237" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>8</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>3</v>
+      </c>
+      <c r="F238" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>9</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>1</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>10</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>1</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>11</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>2</v>
+      </c>
+      <c r="F241" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>12</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Kimmy</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>1</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>13</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Chris</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>2</v>
+      </c>
+      <c r="F243" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>14</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>1</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>15</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>1</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>16</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>2</v>
+      </c>
+      <c r="F246" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>17</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>3</v>
+      </c>
+      <c r="F247" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>18</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>4</v>
+      </c>
+      <c r="F248" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>19</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>5</v>
+      </c>
+      <c r="F249" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>20</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>1</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>1</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>1</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>2</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Conor</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>1</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>3</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>1</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>4</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>1</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>5</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>1</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>6</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>1</v>
+      </c>
+      <c r="F258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>7</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Clarrie</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>2</v>
+      </c>
+      <c r="F259" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>8</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>3</v>
+      </c>
+      <c r="F260" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>9</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>1</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>10</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>1</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>11</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>2</v>
+      </c>
+      <c r="F263" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>12</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Kimmy</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>1</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>13</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Chris</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>2</v>
+      </c>
+      <c r="F265" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>14</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>1</v>
+      </c>
+      <c r="F266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>15</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>1</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>16</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>2</v>
+      </c>
+      <c r="F268" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>17</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>3</v>
+      </c>
+      <c r="F269" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>18</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>4</v>
+      </c>
+      <c r="F270" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>19</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>5</v>
+      </c>
+      <c r="F271" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>20</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>1</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>21</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>2</v>
+      </c>
+      <c r="F273" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>1</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>1</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>2</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Conor</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>1</v>
+      </c>
+      <c r="F277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>3</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>1</v>
+      </c>
+      <c r="F278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>4</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>1</v>
+      </c>
+      <c r="F279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>5</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>1</v>
+      </c>
+      <c r="F280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>6</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>1</v>
+      </c>
+      <c r="F281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>7</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Clarrie</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>2</v>
+      </c>
+      <c r="F282" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>8</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>3</v>
+      </c>
+      <c r="F283" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>9</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>1</v>
+      </c>
+      <c r="F284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>10</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>1</v>
+      </c>
+      <c r="F285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>11</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>2</v>
+      </c>
+      <c r="F286" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>12</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Kimmy</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>1</v>
+      </c>
+      <c r="F287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>13</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Chris</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>2</v>
+      </c>
+      <c r="F288" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>14</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>1</v>
+      </c>
+      <c r="F289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>15</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>1</v>
+      </c>
+      <c r="F290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>16</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>2</v>
+      </c>
+      <c r="F291" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>17</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>3</v>
+      </c>
+      <c r="F292" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>18</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>4</v>
+      </c>
+      <c r="F293" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>19</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>5</v>
+      </c>
+      <c r="F294" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>20</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>1</v>
+      </c>
+      <c r="F295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>21</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>2</v>
+      </c>
+      <c r="F296" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>22</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>1</v>
+      </c>
+      <c r="F297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>1</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>1</v>
+      </c>
+      <c r="F300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>2</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Conor</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>1</v>
+      </c>
+      <c r="F301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>3</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>1</v>
+      </c>
+      <c r="F302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>4</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>1</v>
+      </c>
+      <c r="F303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>5</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>1</v>
+      </c>
+      <c r="F304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>6</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>1</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>7</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Clarrie</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>2</v>
+      </c>
+      <c r="F306" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>8</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>3</v>
+      </c>
+      <c r="F307" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>9</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>1</v>
+      </c>
+      <c r="F308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>10</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>1</v>
+      </c>
+      <c r="F309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>11</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v>2</v>
+      </c>
+      <c r="F310" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>12</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Kimmy</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>1</v>
+      </c>
+      <c r="F311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>13</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Chris</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>2</v>
+      </c>
+      <c r="F312" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>14</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>SamM</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>1</v>
+      </c>
+      <c r="F313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>15</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>1</v>
+      </c>
+      <c r="F314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>16</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>2</v>
+      </c>
+      <c r="F315" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>17</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v>3</v>
+      </c>
+      <c r="F316" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>18</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>4</v>
+      </c>
+      <c r="F317" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>19</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>5</v>
+      </c>
+      <c r="F318" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>20</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>1</v>
+      </c>
+      <c r="F319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>21</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Angus</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>2</v>
+      </c>
+      <c r="F320" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>22</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>1</v>
+      </c>
+      <c r="F321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>23</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
+        <v>2</v>
+      </c>
+      <c r="F322" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Backup.xlsx
+++ b/Backup.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F250"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-03-09</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Conor</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -499,7 +499,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-03-09</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Conor</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -567,17 +567,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -595,7 +595,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-03-09</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Conor</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -663,17 +663,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -689,7 +689,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -717,7 +717,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-03-09</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Conor</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -785,17 +785,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -811,7 +811,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -837,17 +837,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Lukas</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -865,7 +865,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-03-09</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Conor</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -933,17 +933,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -959,7 +959,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -985,17 +985,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Lukas</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>SamM</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-03-09</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Conor</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1107,17 +1107,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Lukas</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>SamM</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1221,14 +1221,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-03-09</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Conor</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1307,17 +1307,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Lukas</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>SamM</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1421,14 +1421,14 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1437,24 +1437,24 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-03-09</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Conor</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1533,17 +1533,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1585,17 +1585,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Lukas</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>SamM</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1647,14 +1647,14 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1663,24 +1663,24 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1699,14 +1699,14 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-03-09</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Conor</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -1785,17 +1785,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1837,17 +1837,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Lukas</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>SamM</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -1899,14 +1899,14 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1915,24 +1915,24 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1951,14 +1951,14 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -1967,17 +1967,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-03-09</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Conor</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2063,17 +2063,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2115,17 +2115,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Lukas</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>SamM</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -2177,14 +2177,14 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2193,24 +2193,24 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2229,14 +2229,14 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -2245,17 +2245,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2281,14 +2281,14 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E75" t="n">
         <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-03-09</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Conor</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -2419,17 +2419,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Lukas</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>SamM</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -2481,14 +2481,14 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2497,24 +2497,24 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2533,14 +2533,14 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -2549,17 +2549,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2585,14 +2585,14 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E87" t="n">
         <v>2</v>
       </c>
       <c r="F87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
@@ -2611,14 +2611,14 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-03-09</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Conor</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -2697,17 +2697,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -2749,17 +2749,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Lukas</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2785,7 +2785,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>SamM</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -2811,14 +2811,14 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2827,24 +2827,24 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2863,14 +2863,14 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -2879,17 +2879,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2915,14 +2915,14 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E100" t="n">
         <v>2</v>
       </c>
       <c r="F100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -2941,14 +2941,14 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -2957,24 +2957,24 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-03-09</t>
         </is>
       </c>
     </row>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Conor</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -3053,17 +3053,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -3105,17 +3105,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Lukas</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>SamM</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -3167,14 +3167,14 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -3183,24 +3183,24 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3219,14 +3219,14 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -3235,17 +3235,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3271,14 +3271,14 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E114" t="n">
         <v>2</v>
       </c>
       <c r="F114" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
@@ -3297,14 +3297,14 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -3313,24 +3313,24 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117">
@@ -3339,24 +3339,24 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Clarrie</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-03-09</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Conor</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -3435,17 +3435,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -3487,17 +3487,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Lukas</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>SamM</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -3549,14 +3549,14 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -3565,24 +3565,24 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3601,14 +3601,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -3617,17 +3617,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3653,14 +3653,14 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E129" t="n">
         <v>2</v>
       </c>
       <c r="F129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
@@ -3679,14 +3679,14 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -3695,24 +3695,24 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132">
@@ -3721,24 +3721,24 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Clarrie</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -3747,12 +3747,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3775,7 +3775,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-03-09</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Conor</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -3843,17 +3843,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3879,7 +3879,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -3895,17 +3895,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Lukas</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>SamM</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -3957,14 +3957,14 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -3973,24 +3973,24 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4009,14 +4009,14 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -4025,17 +4025,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4061,14 +4061,14 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E145" t="n">
         <v>2</v>
       </c>
       <c r="F145" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
@@ -4087,14 +4087,14 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -4103,24 +4103,24 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148">
@@ -4129,24 +4129,24 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Clarrie</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -4155,12 +4155,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4181,24 +4181,24 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>DELETE LAST TWO</t>
         </is>
       </c>
       <c r="E150" t="n">
         <v>2</v>
       </c>
       <c r="F150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151">
@@ -4209,7 +4209,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-03-09</t>
         </is>
       </c>
     </row>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Conor</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -4277,17 +4277,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -4329,17 +4329,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Lukas</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>SamM</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -4391,14 +4391,14 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -4407,24 +4407,24 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F159" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4443,14 +4443,14 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -4459,17 +4459,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4495,14 +4495,14 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E162" t="n">
         <v>2</v>
       </c>
       <c r="F162" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163">
@@ -4521,14 +4521,14 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -4537,24 +4537,24 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F164" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165">
@@ -4563,24 +4563,24 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Clarrie</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -4589,12 +4589,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4615,24 +4615,24 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>DELETE LAST TWO</t>
         </is>
       </c>
       <c r="E167" t="n">
         <v>2</v>
       </c>
       <c r="F167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4655,10 +4655,10 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-03-09</t>
         </is>
       </c>
     </row>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Conor</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -4737,17 +4737,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -4789,17 +4789,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Lukas</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>SamM</t>
         </is>
       </c>
       <c r="E175" t="n">
@@ -4851,14 +4851,14 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -4867,24 +4867,24 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F177" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178">
@@ -4893,7 +4893,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4903,14 +4903,14 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -4919,17 +4919,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4955,14 +4955,14 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E180" t="n">
         <v>2</v>
       </c>
       <c r="F180" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -4981,14 +4981,14 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -4997,24 +4997,24 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F182" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183">
@@ -5023,24 +5023,24 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Clarrie</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -5049,12 +5049,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5075,24 +5075,24 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>DELETE LAST TWO</t>
         </is>
       </c>
       <c r="E185" t="n">
         <v>2</v>
       </c>
       <c r="F185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186">
@@ -5106,7 +5106,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5115,10 +5115,10 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -5132,1633 +5132,19 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E187" t="n">
+        <v>2</v>
+      </c>
+      <c r="F187" t="n">
         <v>4</v>
-      </c>
-      <c r="F187" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Date:</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2023-03-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>GN</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Winner</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Loser</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Scorer</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>W-Streak</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>L-Streak</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>1</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Conor</t>
-        </is>
-      </c>
-      <c r="E190" t="n">
-        <v>1</v>
-      </c>
-      <c r="F190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>2</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>Jasper</t>
-        </is>
-      </c>
-      <c r="E191" t="n">
-        <v>2</v>
-      </c>
-      <c r="F191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>3</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>SamM</t>
-        </is>
-      </c>
-      <c r="E192" t="n">
-        <v>3</v>
-      </c>
-      <c r="F192" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>4</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E193" t="n">
-        <v>1</v>
-      </c>
-      <c r="F193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>5</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E194" t="n">
-        <v>2</v>
-      </c>
-      <c r="F194" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>6</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E195" t="n">
-        <v>3</v>
-      </c>
-      <c r="F195" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>7</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>Rudy</t>
-        </is>
-      </c>
-      <c r="E196" t="n">
-        <v>1</v>
-      </c>
-      <c r="F196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>8</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>Alex</t>
-        </is>
-      </c>
-      <c r="E197" t="n">
-        <v>2</v>
-      </c>
-      <c r="F197" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>9</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E198" t="n">
-        <v>1</v>
-      </c>
-      <c r="F198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>10</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Kimmy</t>
-        </is>
-      </c>
-      <c r="E199" t="n">
-        <v>2</v>
-      </c>
-      <c r="F199" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>11</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>Chris</t>
-        </is>
-      </c>
-      <c r="E200" t="n">
-        <v>3</v>
-      </c>
-      <c r="F200" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>12</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Lukas</t>
-        </is>
-      </c>
-      <c r="E201" t="n">
-        <v>1</v>
-      </c>
-      <c r="F201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>13</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>Clarrie</t>
-        </is>
-      </c>
-      <c r="E202" t="n">
-        <v>1</v>
-      </c>
-      <c r="F202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>14</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>Kimmy</t>
-        </is>
-      </c>
-      <c r="E203" t="n">
-        <v>1</v>
-      </c>
-      <c r="F203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>15</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>Chris</t>
-        </is>
-      </c>
-      <c r="E204" t="n">
-        <v>2</v>
-      </c>
-      <c r="F204" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>16</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>Kimmy</t>
-        </is>
-      </c>
-      <c r="E205" t="n">
-        <v>3</v>
-      </c>
-      <c r="F205" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>17</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>Mitch</t>
-        </is>
-      </c>
-      <c r="E206" t="n">
-        <v>4</v>
-      </c>
-      <c r="F206" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>Alex</t>
-        </is>
-      </c>
-      <c r="E207" t="n">
-        <v>1</v>
-      </c>
-      <c r="F207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Date:</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>2023-03-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>GN</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Winner</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Loser</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>Scorer</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>W-Streak</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>L-Streak</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>1</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>Conor</t>
-        </is>
-      </c>
-      <c r="E210" t="n">
-        <v>1</v>
-      </c>
-      <c r="F210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>2</v>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>Jasper</t>
-        </is>
-      </c>
-      <c r="E211" t="n">
-        <v>2</v>
-      </c>
-      <c r="F211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>3</v>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>SamM</t>
-        </is>
-      </c>
-      <c r="E212" t="n">
-        <v>3</v>
-      </c>
-      <c r="F212" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>4</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E213" t="n">
-        <v>1</v>
-      </c>
-      <c r="F213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>5</v>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E214" t="n">
-        <v>2</v>
-      </c>
-      <c r="F214" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>6</v>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E215" t="n">
-        <v>3</v>
-      </c>
-      <c r="F215" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>7</v>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>Rudy</t>
-        </is>
-      </c>
-      <c r="E216" t="n">
-        <v>1</v>
-      </c>
-      <c r="F216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>8</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>Alex</t>
-        </is>
-      </c>
-      <c r="E217" t="n">
-        <v>2</v>
-      </c>
-      <c r="F217" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>9</v>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E218" t="n">
-        <v>1</v>
-      </c>
-      <c r="F218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>10</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>Kimmy</t>
-        </is>
-      </c>
-      <c r="E219" t="n">
-        <v>2</v>
-      </c>
-      <c r="F219" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>11</v>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>Chris</t>
-        </is>
-      </c>
-      <c r="E220" t="n">
-        <v>3</v>
-      </c>
-      <c r="F220" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>12</v>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>Lukas</t>
-        </is>
-      </c>
-      <c r="E221" t="n">
-        <v>1</v>
-      </c>
-      <c r="F221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>13</v>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>Clarrie</t>
-        </is>
-      </c>
-      <c r="E222" t="n">
-        <v>1</v>
-      </c>
-      <c r="F222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>14</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>Kimmy</t>
-        </is>
-      </c>
-      <c r="E223" t="n">
-        <v>1</v>
-      </c>
-      <c r="F223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>15</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>Chris</t>
-        </is>
-      </c>
-      <c r="E224" t="n">
-        <v>2</v>
-      </c>
-      <c r="F224" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>16</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>Kimmy</t>
-        </is>
-      </c>
-      <c r="E225" t="n">
-        <v>3</v>
-      </c>
-      <c r="F225" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>17</v>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>Mitch</t>
-        </is>
-      </c>
-      <c r="E226" t="n">
-        <v>4</v>
-      </c>
-      <c r="F226" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>18</v>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>Alex</t>
-        </is>
-      </c>
-      <c r="E227" t="n">
-        <v>1</v>
-      </c>
-      <c r="F227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>19</v>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>Will</t>
-        </is>
-      </c>
-      <c r="E228" t="n">
-        <v>2</v>
-      </c>
-      <c r="F228" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Date:</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>2023-03-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>GN</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Winner</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>Loser</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>Scorer</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>W-Streak</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>L-Streak</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>1</v>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>Conor</t>
-        </is>
-      </c>
-      <c r="E231" t="n">
-        <v>1</v>
-      </c>
-      <c r="F231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>2</v>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>Jasper</t>
-        </is>
-      </c>
-      <c r="E232" t="n">
-        <v>2</v>
-      </c>
-      <c r="F232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>3</v>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>SamM</t>
-        </is>
-      </c>
-      <c r="E233" t="n">
-        <v>3</v>
-      </c>
-      <c r="F233" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>4</v>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E234" t="n">
-        <v>1</v>
-      </c>
-      <c r="F234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>5</v>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E235" t="n">
-        <v>2</v>
-      </c>
-      <c r="F235" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>6</v>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E236" t="n">
-        <v>3</v>
-      </c>
-      <c r="F236" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>7</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>Rudy</t>
-        </is>
-      </c>
-      <c r="E237" t="n">
-        <v>1</v>
-      </c>
-      <c r="F237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>8</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>Alex</t>
-        </is>
-      </c>
-      <c r="E238" t="n">
-        <v>2</v>
-      </c>
-      <c r="F238" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>9</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>Angus</t>
-        </is>
-      </c>
-      <c r="E239" t="n">
-        <v>1</v>
-      </c>
-      <c r="F239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>10</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>Kimmy</t>
-        </is>
-      </c>
-      <c r="E240" t="n">
-        <v>2</v>
-      </c>
-      <c r="F240" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>11</v>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>Chris</t>
-        </is>
-      </c>
-      <c r="E241" t="n">
-        <v>3</v>
-      </c>
-      <c r="F241" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="n">
-        <v>12</v>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>Lukas</t>
-        </is>
-      </c>
-      <c r="E242" t="n">
-        <v>1</v>
-      </c>
-      <c r="F242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>13</v>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>Clarrie</t>
-        </is>
-      </c>
-      <c r="E243" t="n">
-        <v>1</v>
-      </c>
-      <c r="F243" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v>14</v>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>Kimmy</t>
-        </is>
-      </c>
-      <c r="E244" t="n">
-        <v>1</v>
-      </c>
-      <c r="F244" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
-        <v>15</v>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>Chris</t>
-        </is>
-      </c>
-      <c r="E245" t="n">
-        <v>2</v>
-      </c>
-      <c r="F245" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>16</v>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>Kimmy</t>
-        </is>
-      </c>
-      <c r="E246" t="n">
-        <v>3</v>
-      </c>
-      <c r="F246" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>17</v>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>Mitch</t>
-        </is>
-      </c>
-      <c r="E247" t="n">
-        <v>4</v>
-      </c>
-      <c r="F247" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>18</v>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>Alex</t>
-        </is>
-      </c>
-      <c r="E248" t="n">
-        <v>1</v>
-      </c>
-      <c r="F248" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>19</v>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>Will</t>
-        </is>
-      </c>
-      <c r="E249" t="n">
-        <v>2</v>
-      </c>
-      <c r="F249" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>20</v>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Loose Gooses</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>Wet Willies</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>DELETE THIS</t>
-        </is>
-      </c>
-      <c r="E250" t="n">
-        <v>1</v>
-      </c>
-      <c r="F250" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
